--- a/biology/Botanique/Nervilia/Nervilia.xlsx
+++ b/biology/Botanique/Nervilia/Nervilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nervilia est un genre d'Orchidées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 décembre 2018) :
 Nervilia acuminata (J.J.Sm.) Schltr.
 Nervilia adolphi Schltr.
 Nervilia affinis Schltr.
@@ -589,15 +603,15 @@
 Nervilia umphangensis Suddee, Rueangr. &amp; S.W.Gale
 Nervilia uniflora (F.Muell.) Schltr.
 Nervilia winckelii J.J.Sm.
-Selon GRIN            (23 décembre 2018)[3] :
+Selon GRIN            (23 décembre 2018) :
 Nervilia acuminata (J. J. Sm.) Schltr.
 Nervilia jacksoniae Rinehart &amp; Fosberg
 Nervilia nipponica Makino
-Selon ITIS      (23 décembre 2018)[4] :
+Selon ITIS      (23 décembre 2018) :
 Nervilia aragoana Gaudich.
 Nervilia jacksoniae Rinehart &amp; Fosberg
 Nervilia platychila Schltr.
-Selon NCBI  (23 décembre 2018)[5] :
+Selon NCBI  (23 décembre 2018) :
 Nervilia adolphi
 Nervilia alishanensis
 Nervilia aragoana
@@ -627,7 +641,7 @@
 Nervilia trangensis
 Nervilia umphangensis
 Nervilia viridis
-Selon The Plant List            (23 décembre 2018)[6] :
+Selon The Plant List            (23 décembre 2018) :
 Nervilia acuminata (J.J.Sm.) Schltr.
 Nervilia adolphi Schltr.
 Nervilia affinis Schltr.
@@ -695,7 +709,7 @@
 Nervilia umenoi Fukuy.
 Nervilia uniflora (F.Muell.) Schltr.
 Nervilia winckelii J.J.Sm.
-Selon Tropicos                                           (23 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Nervilia abyssinica (Chiov.) Schltr.
 Nervilia acuminata Schltr.
 Nervilia adolphi Schltr.
